--- a/data/trans_orig/P5701-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5701-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95087201-9529-45A3-A619-8389ACF53A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D2A957-C4E2-4A69-885E-1DEB71C9B5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C830889A-E285-4978-A297-479ABE3EAD42}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B521EDA8-73A8-44CE-9B8F-E7F476DB6407}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="685">
   <si>
     <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>37,37%</t>
   </si>
   <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
   </si>
   <si>
     <t>33,56%</t>
   </si>
   <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
   </si>
   <si>
     <t>35,24%</t>
   </si>
   <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,1963 +107,1993 @@
     <t>26,59%</t>
   </si>
   <si>
-    <t>23,65%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2015 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
+    <t>1,34%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
 </sst>
 </file>
@@ -2475,7 +2505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4134825-E8A9-4A93-BD7F-0E82DED9286D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0079F44-CEA3-401D-B2E6-E3416309DD79}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3075,13 +3105,13 @@
         <v>110867</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -3090,13 +3120,13 @@
         <v>175208</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3141,13 @@
         <v>23703</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -3126,13 +3156,13 @@
         <v>39814</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>48</v>
@@ -3141,13 +3171,13 @@
         <v>63517</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,7 +3233,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3215,13 +3245,13 @@
         <v>262150</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>231</v>
@@ -3230,13 +3260,13 @@
         <v>240806</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>480</v>
@@ -3245,13 +3275,13 @@
         <v>502956</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3296,13 @@
         <v>172666</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -3281,13 +3311,13 @@
         <v>124405</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>284</v>
@@ -3296,13 +3326,13 @@
         <v>297072</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3347,13 @@
         <v>84543</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>67</v>
@@ -3332,13 +3362,13 @@
         <v>72088</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>149</v>
@@ -3350,10 +3380,10 @@
         <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3398,13 @@
         <v>24878</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -3383,13 +3413,13 @@
         <v>32428</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -3398,13 +3428,13 @@
         <v>57306</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3449,13 @@
         <v>7172</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3434,13 +3464,13 @@
         <v>6684</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -3449,13 +3479,13 @@
         <v>13855</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3553,13 @@
         <v>1474339</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>1403</v>
@@ -3538,28 +3568,28 @@
         <v>1410088</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>2842</v>
       </c>
       <c r="N22" s="7">
-        <v>2884425</v>
+        <v>2884426</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3604,13 @@
         <v>910142</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>946</v>
@@ -3589,13 +3619,13 @@
         <v>964005</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>1848</v>
@@ -3604,13 +3634,13 @@
         <v>1874147</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3655,13 @@
         <v>662979</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>627</v>
@@ -3640,28 +3670,28 @@
         <v>652653</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>1291</v>
       </c>
       <c r="N24" s="7">
-        <v>1315631</v>
+        <v>1315632</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3706,13 @@
         <v>177501</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>270</v>
@@ -3691,13 +3721,13 @@
         <v>289452</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>439</v>
@@ -3706,13 +3736,13 @@
         <v>466953</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3757,13 @@
         <v>51583</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -3742,13 +3772,13 @@
         <v>63000</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>91</v>
@@ -3757,13 +3787,13 @@
         <v>114583</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,7 +3835,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3819,7 +3849,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3838,7 +3868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD5350B-935A-43A5-8C2F-AD62E4DB3186}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FEB81E-E955-401C-ADA0-AC66BB10473D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3855,7 +3885,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3962,13 +3992,13 @@
         <v>487361</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>611</v>
@@ -3977,13 +4007,13 @@
         <v>653526</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>1072</v>
@@ -3992,13 +4022,13 @@
         <v>1140888</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4043,13 @@
         <v>230668</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>318</v>
@@ -4028,13 +4058,13 @@
         <v>341128</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>531</v>
@@ -4043,13 +4073,13 @@
         <v>571796</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4094,13 @@
         <v>171862</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>205</v>
@@ -4079,13 +4109,13 @@
         <v>222602</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>360</v>
@@ -4094,13 +4124,13 @@
         <v>394464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4145,13 @@
         <v>61005</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>93</v>
@@ -4130,13 +4160,13 @@
         <v>98708</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>150</v>
@@ -4145,13 +4175,13 @@
         <v>159713</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4196,13 @@
         <v>18550</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4181,13 +4211,13 @@
         <v>20793</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -4196,13 +4226,13 @@
         <v>39343</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4366,13 @@
         <v>470135</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>893</v>
@@ -4351,13 +4381,13 @@
         <v>953390</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4402,13 @@
         <v>259708</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>205</v>
@@ -4387,13 +4417,13 @@
         <v>222068</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>450</v>
@@ -4402,13 +4432,13 @@
         <v>481777</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4453,13 @@
         <v>86273</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>95</v>
@@ -4438,13 +4468,13 @@
         <v>109741</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -4453,13 +4483,13 @@
         <v>196014</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4504,13 @@
         <v>14748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -4489,13 +4519,13 @@
         <v>26151</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -4504,13 +4534,13 @@
         <v>40898</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,7 +4596,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4578,13 +4608,13 @@
         <v>278998</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>259</v>
@@ -4593,13 +4623,13 @@
         <v>285304</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>511</v>
@@ -4608,13 +4638,13 @@
         <v>564302</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4659,13 @@
         <v>111467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
@@ -4644,13 +4674,13 @@
         <v>114661</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>209</v>
@@ -4659,13 +4689,13 @@
         <v>226128</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4710,13 @@
         <v>62949</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4695,13 +4725,13 @@
         <v>32510</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
@@ -4710,13 +4740,13 @@
         <v>95459</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4761,13 @@
         <v>21492</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>142</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -4746,13 +4776,13 @@
         <v>22080</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -4761,13 +4791,13 @@
         <v>43573</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4812,13 @@
         <v>4178</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4797,13 +4827,13 @@
         <v>4076</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -4812,13 +4842,13 @@
         <v>8254</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4916,13 @@
         <v>1882145</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>1742</v>
@@ -4901,13 +4931,13 @@
         <v>1867439</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>3518</v>
@@ -4916,13 +4946,13 @@
         <v>3749584</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,16 +4964,16 @@
         <v>772</v>
       </c>
       <c r="D23" s="7">
-        <v>825391</v>
+        <v>825390</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H23" s="7">
         <v>861</v>
@@ -4952,13 +4982,13 @@
         <v>925924</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M23" s="7">
         <v>1633</v>
@@ -4967,13 +4997,13 @@
         <v>1751314</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>28</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +5018,13 @@
         <v>494520</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H24" s="7">
         <v>438</v>
@@ -5003,13 +5033,13 @@
         <v>477180</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M24" s="7">
         <v>895</v>
@@ -5018,13 +5048,13 @@
         <v>971700</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5069,13 @@
         <v>168771</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H25" s="7">
         <v>207</v>
@@ -5054,10 +5084,10 @@
         <v>230529</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>356</v>
@@ -5090,13 +5120,13 @@
         <v>37476</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>280</v>
+        <v>58</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
       <c r="H26" s="7">
         <v>44</v>
@@ -5105,13 +5135,13 @@
         <v>51019</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>56</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -5126,7 +5156,7 @@
         <v>364</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>57</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,7 +5168,7 @@
         <v>3191</v>
       </c>
       <c r="D27" s="7">
-        <v>3408303</v>
+        <v>3408302</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -5182,7 +5212,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5201,7 +5231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE0A5FB-017D-472C-85A3-22837CFBE3E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E9009B-7E15-4495-BFD6-930C21F7A771}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5218,7 +5248,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5325,13 +5355,13 @@
         <v>298062</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H4" s="7">
         <v>295</v>
@@ -5340,13 +5370,13 @@
         <v>327724</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M4" s="7">
         <v>593</v>
@@ -5355,13 +5385,13 @@
         <v>625785</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5406,13 @@
         <v>265421</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H5" s="7">
         <v>349</v>
@@ -5391,13 +5421,13 @@
         <v>382845</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M5" s="7">
         <v>618</v>
@@ -5406,13 +5436,13 @@
         <v>648265</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5457,13 @@
         <v>142668</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H6" s="7">
         <v>170</v>
@@ -5442,13 +5472,13 @@
         <v>191279</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M6" s="7">
         <v>315</v>
@@ -5457,10 +5487,10 @@
         <v>333946</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>391</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>392</v>
@@ -5511,10 +5541,10 @@
         <v>398</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>268</v>
+        <v>399</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>308</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5559,13 @@
         <v>4873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -5544,13 +5574,13 @@
         <v>16003</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -5559,13 +5589,13 @@
         <v>20876</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>404</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5663,13 @@
         <v>879948</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H10" s="7">
         <v>808</v>
@@ -5648,13 +5678,13 @@
         <v>828161</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M10" s="7">
         <v>1632</v>
@@ -5663,13 +5693,13 @@
         <v>1708109</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>412</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5714,13 @@
         <v>779367</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H11" s="7">
         <v>759</v>
@@ -5699,13 +5729,13 @@
         <v>793632</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M11" s="7">
         <v>1502</v>
@@ -5714,13 +5744,13 @@
         <v>1572999</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5765,13 @@
         <v>302568</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H12" s="7">
         <v>258</v>
@@ -5750,13 +5780,13 @@
         <v>275065</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M12" s="7">
         <v>541</v>
@@ -5765,13 +5795,13 @@
         <v>577634</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5816,13 @@
         <v>91447</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5801,13 +5831,13 @@
         <v>77145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -5816,13 +5846,13 @@
         <v>168592</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5867,13 @@
         <v>18415</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>441</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>442</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -5852,13 +5882,13 @@
         <v>10777</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -5867,13 +5897,13 @@
         <v>29192</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>405</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,7 +5959,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5941,13 +5971,13 @@
         <v>266861</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="H16" s="7">
         <v>263</v>
@@ -5956,13 +5986,13 @@
         <v>271399</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>511</v>
@@ -5971,13 +6001,13 @@
         <v>538260</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +6022,13 @@
         <v>194284</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -6007,13 +6037,13 @@
         <v>182342</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>357</v>
@@ -6022,13 +6052,13 @@
         <v>376626</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6073,13 @@
         <v>65109</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -6058,13 +6088,13 @@
         <v>63638</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M18" s="7">
         <v>114</v>
@@ -6073,13 +6103,13 @@
         <v>128747</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,13 +6124,13 @@
         <v>16910</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -6109,13 +6139,13 @@
         <v>27097</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -6130,7 +6160,7 @@
         <v>481</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>268</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6175,13 @@
         <v>2857</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -6160,13 +6190,13 @@
         <v>3730</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -6175,13 +6205,13 @@
         <v>6587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6279,13 @@
         <v>1444870</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H22" s="7">
         <v>1366</v>
@@ -6264,13 +6294,13 @@
         <v>1427284</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M22" s="7">
         <v>2736</v>
@@ -6279,13 +6309,13 @@
         <v>2872154</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>497</v>
+        <v>13</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6330,13 @@
         <v>1239072</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>501</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H23" s="7">
         <v>1284</v>
@@ -6315,13 +6345,13 @@
         <v>1358819</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M23" s="7">
         <v>2477</v>
@@ -6330,13 +6360,13 @@
         <v>2597891</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6381,13 @@
         <v>510345</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H24" s="7">
         <v>487</v>
@@ -6366,13 +6396,13 @@
         <v>529982</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M24" s="7">
         <v>970</v>
@@ -6381,13 +6411,13 @@
         <v>1040327</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6432,13 @@
         <v>151681</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>517</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="H25" s="7">
         <v>156</v>
@@ -6417,13 +6447,13 @@
         <v>179781</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="M25" s="7">
         <v>297</v>
@@ -6432,13 +6462,13 @@
         <v>331462</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>519</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6483,13 @@
         <v>26145</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>522</v>
+        <v>278</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>446</v>
+        <v>525</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="H26" s="7">
         <v>28</v>
@@ -6468,13 +6498,13 @@
         <v>30510</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M26" s="7">
         <v>51</v>
@@ -6483,13 +6513,13 @@
         <v>56656</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,7 +6575,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6564,7 +6594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C5F22A-4F8F-471B-BAFD-BFEECC946B06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5902D99-AED5-4F4E-9543-30203AC59390}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6581,7 +6611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6688,13 +6718,13 @@
         <v>234319</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H4" s="7">
         <v>557</v>
@@ -6703,13 +6733,13 @@
         <v>324585</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>537</v>
       </c>
       <c r="M4" s="7">
         <v>856</v>
@@ -6718,13 +6748,13 @@
         <v>558904</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6769,13 @@
         <v>157385</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>541</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="H5" s="7">
         <v>470</v>
@@ -6754,13 +6784,13 @@
         <v>270688</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="M5" s="7">
         <v>667</v>
@@ -6769,13 +6799,13 @@
         <v>428072</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,10 +6823,10 @@
         <v>131</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="H6" s="7">
         <v>212</v>
@@ -6805,13 +6835,13 @@
         <v>124083</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>547</v>
+        <v>350</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="M6" s="7">
         <v>317</v>
@@ -6820,13 +6850,13 @@
         <v>206525</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>218</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,13 +6871,13 @@
         <v>47479</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="H7" s="7">
         <v>137</v>
@@ -6856,13 +6886,13 @@
         <v>79153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="M7" s="7">
         <v>201</v>
@@ -6871,13 +6901,13 @@
         <v>126631</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>559</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,13 +6922,13 @@
         <v>19157</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>434</v>
+        <v>565</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>561</v>
+        <v>277</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>515</v>
+        <v>566</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -6907,13 +6937,13 @@
         <v>33785</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -6922,13 +6952,13 @@
         <v>52942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,13 +7026,13 @@
         <v>1168314</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="H10" s="7">
         <v>1398</v>
@@ -7011,13 +7041,13 @@
         <v>1080165</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="M10" s="7">
         <v>2373</v>
@@ -7026,13 +7056,13 @@
         <v>2248479</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,13 +7077,13 @@
         <v>719654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>584</v>
       </c>
       <c r="H11" s="7">
         <v>1077</v>
@@ -7065,25 +7095,25 @@
         <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="M11" s="7">
         <v>1803</v>
       </c>
       <c r="N11" s="7">
-        <v>1474290</v>
+        <v>1474291</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>581</v>
+        <v>374</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,13 +7128,13 @@
         <v>160457</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>48</v>
+        <v>591</v>
       </c>
       <c r="H12" s="7">
         <v>240</v>
@@ -7113,13 +7143,13 @@
         <v>277267</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>428</v>
+        <v>592</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>586</v>
+        <v>312</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="M12" s="7">
         <v>396</v>
@@ -7128,13 +7158,13 @@
         <v>437724</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7179,13 @@
         <v>92406</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -7164,13 +7194,13 @@
         <v>105229</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>265</v>
@@ -7179,13 +7209,13 @@
         <v>197634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>595</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7230,13 @@
         <v>21032</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>604</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -7215,13 +7245,13 @@
         <v>31613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>607</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
@@ -7230,13 +7260,13 @@
         <v>52644</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>602</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,7 +7308,7 @@
         <v>4911</v>
       </c>
       <c r="N15" s="7">
-        <v>4410771</v>
+        <v>4410772</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7292,7 +7322,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7304,13 +7334,13 @@
         <v>395784</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="H16" s="7">
         <v>576</v>
@@ -7319,13 +7349,13 @@
         <v>429822</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="M16" s="7">
         <v>968</v>
@@ -7334,13 +7364,13 @@
         <v>825606</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7385,13 @@
         <v>192840</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>613</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="H17" s="7">
         <v>294</v>
@@ -7370,13 +7400,13 @@
         <v>192114</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="M17" s="7">
         <v>498</v>
@@ -7385,13 +7415,13 @@
         <v>384954</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>619</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,13 +7436,13 @@
         <v>47671</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="H18" s="7">
         <v>63</v>
@@ -7421,13 +7451,13 @@
         <v>47758</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>516</v>
+        <v>630</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="M18" s="7">
         <v>111</v>
@@ -7436,13 +7466,13 @@
         <v>95429</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>628</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7457,13 +7487,13 @@
         <v>27190</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -7472,13 +7502,13 @@
         <v>35036</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>639</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -7487,13 +7517,13 @@
         <v>62226</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>231</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7508,13 +7538,13 @@
         <v>9554</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>643</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>636</v>
+        <v>565</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -7523,13 +7553,13 @@
         <v>8997</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>525</v>
+        <v>644</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -7538,13 +7568,13 @@
         <v>18551</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7612,13 +7642,13 @@
         <v>1798416</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>64</v>
+        <v>650</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="H22" s="7">
         <v>2531</v>
@@ -7627,13 +7657,13 @@
         <v>1834572</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>654</v>
       </c>
       <c r="M22" s="7">
         <v>4197</v>
@@ -7642,13 +7672,13 @@
         <v>3632988</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7663,13 +7693,13 @@
         <v>1069879</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="H23" s="7">
         <v>1841</v>
@@ -7678,13 +7708,13 @@
         <v>1217438</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="M23" s="7">
         <v>2968</v>
@@ -7693,13 +7723,13 @@
         <v>2287317</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>577</v>
+        <v>666</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7714,13 +7744,13 @@
         <v>290569</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>625</v>
+        <v>48</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="H24" s="7">
         <v>515</v>
@@ -7729,13 +7759,13 @@
         <v>449109</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>657</v>
+        <v>263</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="M24" s="7">
         <v>824</v>
@@ -7744,13 +7774,13 @@
         <v>739677</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7765,13 +7795,13 @@
         <v>167074</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>231</v>
+        <v>355</v>
       </c>
       <c r="H25" s="7">
         <v>351</v>
@@ -7780,13 +7810,13 @@
         <v>219417</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>231</v>
+        <v>675</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="M25" s="7">
         <v>551</v>
@@ -7795,13 +7825,13 @@
         <v>386492</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>667</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7816,13 +7846,13 @@
         <v>49742</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>105</v>
+        <v>680</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>487</v>
+        <v>682</v>
       </c>
       <c r="H26" s="7">
         <v>107</v>
@@ -7831,13 +7861,13 @@
         <v>74395</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>670</v>
+        <v>488</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>599</v>
+        <v>361</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="M26" s="7">
         <v>167</v>
@@ -7846,13 +7876,13 @@
         <v>124138</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>672</v>
+        <v>475</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>673</v>
+        <v>642</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7908,7 +7938,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5701-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5701-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D2A957-C4E2-4A69-885E-1DEB71C9B5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1A692B9-CC87-4CDA-A753-0342382EC601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B521EDA8-73A8-44CE-9B8F-E7F476DB6407}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CCB04825-9898-4013-8326-331AA9DE9281}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="679">
   <si>
     <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,2023 +77,2005 @@
     <t>37,37%</t>
   </si>
   <si>
-    <t>34,29%</t>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>Casi como deseo</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
   </si>
   <si>
     <t>40,37%</t>
   </si>
   <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>Casi como deseo</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
   </si>
 </sst>
 </file>
@@ -2505,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0079F44-CEA3-401D-B2E6-E3416309DD79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B64646E-D3B4-4EF7-9D0F-9C6C48514FB2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2934,7 +2916,7 @@
         <v>799</v>
       </c>
       <c r="D10" s="7">
-        <v>826605</v>
+        <v>826606</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -3105,13 +3087,13 @@
         <v>110867</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -3120,13 +3102,13 @@
         <v>175208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3123,13 @@
         <v>23703</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -3156,13 +3138,13 @@
         <v>39814</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>48</v>
@@ -3171,13 +3153,13 @@
         <v>63517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,7 +3171,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3233,7 +3215,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3245,13 +3227,13 @@
         <v>262150</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>231</v>
@@ -3260,13 +3242,13 @@
         <v>240806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>480</v>
@@ -3275,13 +3257,13 @@
         <v>502956</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3278,13 @@
         <v>172666</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -3311,13 +3293,13 @@
         <v>124405</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>284</v>
@@ -3326,13 +3308,13 @@
         <v>297072</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3329,13 @@
         <v>84543</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>67</v>
@@ -3362,13 +3344,13 @@
         <v>72088</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>149</v>
@@ -3377,13 +3359,13 @@
         <v>156631</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3380,13 @@
         <v>24878</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -3413,13 +3395,13 @@
         <v>32428</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -3428,13 +3410,13 @@
         <v>57306</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3431,13 @@
         <v>7172</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3464,13 +3446,13 @@
         <v>6684</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -3479,13 +3461,13 @@
         <v>13855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,16 +3532,16 @@
         <v>1439</v>
       </c>
       <c r="D22" s="7">
-        <v>1474339</v>
+        <v>1474338</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>1403</v>
@@ -3568,13 +3550,13 @@
         <v>1410088</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>2842</v>
@@ -3583,13 +3565,13 @@
         <v>2884426</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3586,13 @@
         <v>910142</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>946</v>
@@ -3619,13 +3601,13 @@
         <v>964005</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>1848</v>
@@ -3634,13 +3616,13 @@
         <v>1874147</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3637,13 @@
         <v>662979</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>627</v>
@@ -3670,13 +3652,13 @@
         <v>652653</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>1291</v>
@@ -3685,13 +3667,13 @@
         <v>1315632</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3688,13 @@
         <v>177501</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>270</v>
@@ -3721,13 +3703,13 @@
         <v>289452</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>439</v>
@@ -3736,13 +3718,13 @@
         <v>466953</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3739,13 @@
         <v>51583</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -3772,13 +3754,13 @@
         <v>63000</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>91</v>
@@ -3787,13 +3769,13 @@
         <v>114583</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,7 +3787,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3849,7 +3831,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3868,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FEB81E-E955-401C-ADA0-AC66BB10473D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBE3383-0B0A-49B9-B870-EB04A69CF868}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3885,7 +3867,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3992,13 +3974,13 @@
         <v>487361</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>611</v>
@@ -4007,13 +3989,13 @@
         <v>653526</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>1072</v>
@@ -4022,13 +4004,13 @@
         <v>1140888</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4025,13 @@
         <v>230668</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>318</v>
@@ -4058,13 +4040,13 @@
         <v>341128</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>531</v>
@@ -4073,13 +4055,13 @@
         <v>571796</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4076,13 @@
         <v>171862</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>205</v>
@@ -4109,13 +4091,13 @@
         <v>222602</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>360</v>
@@ -4124,13 +4106,13 @@
         <v>394464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4127,13 @@
         <v>61005</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>93</v>
@@ -4160,13 +4142,13 @@
         <v>98708</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>150</v>
@@ -4175,13 +4157,13 @@
         <v>159713</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4178,13 @@
         <v>18550</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4211,13 +4193,13 @@
         <v>20793</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -4226,13 +4208,13 @@
         <v>39343</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4282,13 @@
         <v>1115785</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>872</v>
@@ -4315,13 +4297,13 @@
         <v>928609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>1935</v>
@@ -4330,13 +4312,13 @@
         <v>2044395</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4333,13 @@
         <v>483255</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>441</v>
@@ -4366,13 +4348,13 @@
         <v>470135</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>893</v>
@@ -4381,13 +4363,13 @@
         <v>953390</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4384,13 @@
         <v>259708</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="H12" s="7">
         <v>205</v>
@@ -4417,13 +4399,13 @@
         <v>222068</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>450</v>
@@ -4432,13 +4414,13 @@
         <v>481777</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4435,13 @@
         <v>86273</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>95</v>
@@ -4468,13 +4450,13 @@
         <v>109741</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -4483,13 +4465,13 @@
         <v>196014</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4486,13 @@
         <v>14748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -4519,13 +4501,13 @@
         <v>26151</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -4534,13 +4516,13 @@
         <v>40898</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,7 +4578,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4608,13 +4590,13 @@
         <v>278998</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>259</v>
@@ -4623,13 +4605,13 @@
         <v>285304</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>511</v>
@@ -4638,13 +4620,13 @@
         <v>564302</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4641,13 @@
         <v>111467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
@@ -4674,13 +4656,13 @@
         <v>114661</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>209</v>
@@ -4689,13 +4671,13 @@
         <v>226128</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4692,13 @@
         <v>62949</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4725,13 +4707,13 @@
         <v>32510</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
@@ -4740,13 +4722,13 @@
         <v>95459</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4743,13 @@
         <v>21492</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -4776,13 +4758,13 @@
         <v>22080</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -4791,13 +4773,13 @@
         <v>43573</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4794,13 @@
         <v>4178</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4827,13 +4809,13 @@
         <v>4076</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -4842,13 +4824,13 @@
         <v>8254</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,7 +4898,7 @@
         <v>1882145</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>326</v>
@@ -4952,7 +4934,7 @@
         <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,16 +4946,16 @@
         <v>772</v>
       </c>
       <c r="D23" s="7">
-        <v>825390</v>
+        <v>825391</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H23" s="7">
         <v>861</v>
@@ -4982,13 +4964,13 @@
         <v>925924</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>1633</v>
@@ -4997,13 +4979,13 @@
         <v>1751314</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5000,13 @@
         <v>494520</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H24" s="7">
         <v>438</v>
@@ -5033,13 +5015,13 @@
         <v>477180</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M24" s="7">
         <v>895</v>
@@ -5048,13 +5030,13 @@
         <v>971700</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5051,13 @@
         <v>168771</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H25" s="7">
         <v>207</v>
@@ -5084,13 +5066,13 @@
         <v>230529</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M25" s="7">
         <v>359</v>
@@ -5099,10 +5081,10 @@
         <v>399300</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>359</v>
@@ -5120,7 +5102,7 @@
         <v>37476</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>360</v>
@@ -5135,13 +5117,13 @@
         <v>51019</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>362</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>56</v>
+        <v>363</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -5150,13 +5132,13 @@
         <v>88495</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,7 +5150,7 @@
         <v>3191</v>
       </c>
       <c r="D27" s="7">
-        <v>3408302</v>
+        <v>3408303</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -5212,7 +5194,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -5231,7 +5213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E9009B-7E15-4495-BFD6-930C21F7A771}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EECB2F7-126F-4D57-B865-D8A8AAEFE20E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5248,7 +5230,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5355,13 +5337,13 @@
         <v>298062</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H4" s="7">
         <v>295</v>
@@ -5370,13 +5352,13 @@
         <v>327724</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M4" s="7">
         <v>593</v>
@@ -5385,13 +5367,13 @@
         <v>625785</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5388,13 @@
         <v>265421</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H5" s="7">
         <v>349</v>
@@ -5421,13 +5403,13 @@
         <v>382845</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M5" s="7">
         <v>618</v>
@@ -5436,13 +5418,13 @@
         <v>648265</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5439,13 @@
         <v>142668</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H6" s="7">
         <v>170</v>
@@ -5472,10 +5454,10 @@
         <v>191279</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>390</v>
@@ -5487,10 +5469,10 @@
         <v>333946</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>392</v>
@@ -5508,7 +5490,7 @@
         <v>43324</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>393</v>
@@ -5589,10 +5571,10 @@
         <v>20876</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>407</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>408</v>
@@ -5678,7 +5660,7 @@
         <v>828161</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>412</v>
@@ -5693,13 +5675,13 @@
         <v>1708109</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>414</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5696,13 @@
         <v>779367</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H11" s="7">
         <v>759</v>
@@ -5798,10 +5780,10 @@
         <v>431</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5798,13 @@
         <v>91447</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5831,13 +5813,13 @@
         <v>77145</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -5846,13 +5828,13 @@
         <v>168592</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5849,13 @@
         <v>18415</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>442</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>443</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -5882,13 +5864,13 @@
         <v>10777</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -5897,13 +5879,13 @@
         <v>29192</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>447</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,7 +5941,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5971,13 +5953,13 @@
         <v>266861</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>263</v>
@@ -5986,13 +5968,13 @@
         <v>271399</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M16" s="7">
         <v>511</v>
@@ -6001,13 +5983,13 @@
         <v>538260</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6004,13 @@
         <v>194284</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -6037,13 +6019,13 @@
         <v>182342</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M17" s="7">
         <v>357</v>
@@ -6052,13 +6034,13 @@
         <v>376626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,13 +6055,13 @@
         <v>65109</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>465</v>
+        <v>130</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -6088,13 +6070,13 @@
         <v>63638</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M18" s="7">
         <v>114</v>
@@ -6103,13 +6085,13 @@
         <v>128747</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6106,13 @@
         <v>16910</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -6139,10 +6121,10 @@
         <v>27097</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>478</v>
+        <v>53</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>479</v>
@@ -6175,13 +6157,13 @@
         <v>2857</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -6190,13 +6172,13 @@
         <v>3730</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>487</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>51</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -6205,13 +6187,13 @@
         <v>6587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6261,13 @@
         <v>1444870</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H22" s="7">
         <v>1366</v>
@@ -6294,13 +6276,13 @@
         <v>1427284</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M22" s="7">
         <v>2736</v>
@@ -6309,13 +6291,13 @@
         <v>2872154</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>13</v>
+        <v>495</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6312,13 @@
         <v>1239072</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H23" s="7">
         <v>1284</v>
@@ -6345,13 +6327,13 @@
         <v>1358819</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M23" s="7">
         <v>2477</v>
@@ -6360,13 +6342,13 @@
         <v>2597891</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6363,13 @@
         <v>510345</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H24" s="7">
         <v>487</v>
@@ -6396,13 +6378,13 @@
         <v>529982</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M24" s="7">
         <v>970</v>
@@ -6411,13 +6393,13 @@
         <v>1040327</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6414,13 @@
         <v>151681</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H25" s="7">
         <v>156</v>
@@ -6447,13 +6429,13 @@
         <v>179781</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M25" s="7">
         <v>297</v>
@@ -6462,13 +6444,13 @@
         <v>331462</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>302</v>
+        <v>519</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6465,13 @@
         <v>26145</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>521</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>526</v>
+        <v>52</v>
       </c>
       <c r="H26" s="7">
         <v>28</v>
@@ -6498,13 +6480,13 @@
         <v>30510</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M26" s="7">
         <v>51</v>
@@ -6513,13 +6495,13 @@
         <v>56656</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>446</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,7 +6557,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -6594,7 +6576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5902D99-AED5-4F4E-9543-30203AC59390}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F65667B-E8FB-4389-BF67-59573E5089B5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6611,7 +6593,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6718,13 +6700,13 @@
         <v>234319</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>532</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H4" s="7">
         <v>557</v>
@@ -6733,13 +6715,13 @@
         <v>324585</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M4" s="7">
         <v>856</v>
@@ -6748,13 +6730,13 @@
         <v>558904</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6751,13 @@
         <v>157385</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H5" s="7">
         <v>470</v>
@@ -6784,13 +6766,13 @@
         <v>270688</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M5" s="7">
         <v>667</v>
@@ -6799,13 +6781,13 @@
         <v>428072</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6802,13 @@
         <v>82441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H6" s="7">
         <v>212</v>
@@ -6835,13 +6817,13 @@
         <v>124083</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>350</v>
+        <v>548</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M6" s="7">
         <v>317</v>
@@ -6850,13 +6832,13 @@
         <v>206525</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,13 +6853,13 @@
         <v>47479</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H7" s="7">
         <v>137</v>
@@ -6886,13 +6868,13 @@
         <v>79153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>561</v>
+        <v>231</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M7" s="7">
         <v>201</v>
@@ -6901,13 +6883,13 @@
         <v>126631</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>560</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6922,13 +6904,13 @@
         <v>19157</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>277</v>
+        <v>563</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -6937,13 +6919,13 @@
         <v>33785</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -6952,13 +6934,13 @@
         <v>52942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>572</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,13 +7008,13 @@
         <v>1168314</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H10" s="7">
         <v>1398</v>
@@ -7041,13 +7023,13 @@
         <v>1080165</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M10" s="7">
         <v>2373</v>
@@ -7056,13 +7038,13 @@
         <v>2248479</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7059,13 @@
         <v>719654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>582</v>
+        <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H11" s="7">
         <v>1077</v>
@@ -7095,10 +7077,10 @@
         <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="M11" s="7">
         <v>1803</v>
@@ -7107,13 +7089,13 @@
         <v>1474291</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>374</v>
+        <v>583</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7110,13 @@
         <v>160457</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>590</v>
+        <v>273</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H12" s="7">
         <v>240</v>
@@ -7143,13 +7125,13 @@
         <v>277267</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>312</v>
+        <v>589</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M12" s="7">
         <v>396</v>
@@ -7158,13 +7140,13 @@
         <v>437724</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7161,13 @@
         <v>92406</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -7194,13 +7176,13 @@
         <v>105229</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>598</v>
       </c>
       <c r="M13" s="7">
         <v>265</v>
@@ -7209,13 +7191,13 @@
         <v>197634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>599</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7212,13 @@
         <v>21032</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>605</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -7245,13 +7227,13 @@
         <v>31613</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>608</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
@@ -7260,13 +7242,13 @@
         <v>52644</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>607</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,7 +7304,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7334,13 +7316,13 @@
         <v>395784</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="H16" s="7">
         <v>576</v>
@@ -7349,13 +7331,13 @@
         <v>429822</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="M16" s="7">
         <v>968</v>
@@ -7364,13 +7346,13 @@
         <v>825606</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7367,13 @@
         <v>192840</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>620</v>
       </c>
       <c r="H17" s="7">
         <v>294</v>
@@ -7400,13 +7382,13 @@
         <v>192114</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>622</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>623</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>498</v>
@@ -7415,13 +7397,13 @@
         <v>384954</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7418,13 @@
         <v>47671</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="H18" s="7">
         <v>63</v>
@@ -7451,13 +7433,13 @@
         <v>47758</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>631</v>
       </c>
       <c r="M18" s="7">
         <v>111</v>
@@ -7466,13 +7448,13 @@
         <v>95429</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>633</v>
+        <v>399</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7487,13 +7469,13 @@
         <v>27190</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -7502,13 +7484,13 @@
         <v>35036</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -7517,13 +7499,13 @@
         <v>62226</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7538,13 +7520,13 @@
         <v>9554</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>642</v>
+        <v>443</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>643</v>
+        <v>523</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -7553,13 +7535,13 @@
         <v>8997</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>644</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -7568,13 +7550,13 @@
         <v>18551</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,13 +7624,13 @@
         <v>1798416</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H22" s="7">
         <v>2531</v>
@@ -7657,13 +7639,13 @@
         <v>1834572</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="M22" s="7">
         <v>4197</v>
@@ -7672,13 +7654,13 @@
         <v>3632988</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,13 +7675,13 @@
         <v>1069879</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="H23" s="7">
         <v>1841</v>
@@ -7708,13 +7690,13 @@
         <v>1217438</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="M23" s="7">
         <v>2968</v>
@@ -7723,13 +7705,13 @@
         <v>2287317</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,13 +7726,13 @@
         <v>290569</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>48</v>
+        <v>631</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H24" s="7">
         <v>515</v>
@@ -7759,13 +7741,13 @@
         <v>449109</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>263</v>
+        <v>664</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="M24" s="7">
         <v>824</v>
@@ -7774,13 +7756,13 @@
         <v>739677</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>673</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,13 +7777,13 @@
         <v>167074</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>674</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>355</v>
+        <v>669</v>
       </c>
       <c r="H25" s="7">
         <v>351</v>
@@ -7810,13 +7792,13 @@
         <v>219417</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="M25" s="7">
         <v>551</v>
@@ -7825,13 +7807,13 @@
         <v>386492</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>91</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,13 +7828,13 @@
         <v>49742</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>680</v>
+        <v>361</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>681</v>
+        <v>58</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="H26" s="7">
         <v>107</v>
@@ -7861,13 +7843,13 @@
         <v>74395</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>488</v>
+        <v>676</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="M26" s="7">
         <v>167</v>
@@ -7876,13 +7858,13 @@
         <v>124138</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>475</v>
+        <v>678</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>642</v>
+        <v>443</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>684</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7938,7 +7920,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5701-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5701-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1A692B9-CC87-4CDA-A753-0342382EC601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{420D6158-DBBC-42D6-911F-D474CF0D2040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CCB04825-9898-4013-8326-331AA9DE9281}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E7B8DCAE-004D-49F0-90AD-938143909BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="675">
   <si>
     <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,2005 +77,1993 @@
     <t>37,37%</t>
   </si>
   <si>
-    <t>34,65%</t>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>Casi como deseo</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
   </si>
   <si>
     <t>40,47%</t>
   </si>
   <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>Casi como deseo</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
   </si>
   <si>
     <t>29,7%</t>
   </si>
   <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>5,97%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2016 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
     <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
 </sst>
 </file>
@@ -2487,7 +2475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B64646E-D3B4-4EF7-9D0F-9C6C48514FB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC981639-0D2C-480E-91FC-571B4266FEAC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2916,7 +2904,7 @@
         <v>799</v>
       </c>
       <c r="D10" s="7">
-        <v>826606</v>
+        <v>826605</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -3171,7 +3159,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3350,7 +3338,7 @@
         <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>149</v>
@@ -3359,13 +3347,13 @@
         <v>156631</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3368,13 @@
         <v>24878</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -3395,10 +3383,10 @@
         <v>32428</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>139</v>
@@ -3532,7 +3520,7 @@
         <v>1439</v>
       </c>
       <c r="D22" s="7">
-        <v>1474338</v>
+        <v>1474339</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>151</v>
@@ -3562,7 +3550,7 @@
         <v>2842</v>
       </c>
       <c r="N22" s="7">
-        <v>2884426</v>
+        <v>2884425</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>157</v>
@@ -3664,7 +3652,7 @@
         <v>1291</v>
       </c>
       <c r="N24" s="7">
-        <v>1315632</v>
+        <v>1315631</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>175</v>
@@ -3742,10 +3730,10 @@
         <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -3754,13 +3742,13 @@
         <v>63000</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>91</v>
@@ -3769,13 +3757,13 @@
         <v>114583</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,7 +3775,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3817,7 +3805,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3831,7 +3819,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3850,7 +3838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBE3383-0B0A-49B9-B870-EB04A69CF868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4AC37C-491B-42DC-AEC3-941F51D97A6B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3867,7 +3855,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3974,13 +3962,13 @@
         <v>487361</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>611</v>
@@ -3989,13 +3977,13 @@
         <v>653526</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>1072</v>
@@ -4004,13 +3992,13 @@
         <v>1140888</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4013,13 @@
         <v>230668</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>318</v>
@@ -4040,13 +4028,13 @@
         <v>341128</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>531</v>
@@ -4055,13 +4043,13 @@
         <v>571796</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4064,13 @@
         <v>171862</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>205</v>
@@ -4091,13 +4079,13 @@
         <v>222602</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>360</v>
@@ -4106,13 +4094,13 @@
         <v>394464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4115,13 @@
         <v>61005</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>93</v>
@@ -4142,13 +4130,13 @@
         <v>98708</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>150</v>
@@ -4157,13 +4145,13 @@
         <v>159713</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4166,13 @@
         <v>18550</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4193,13 +4181,13 @@
         <v>20793</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -4208,13 +4196,13 @@
         <v>39343</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4270,13 @@
         <v>1115785</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>872</v>
@@ -4297,13 +4285,13 @@
         <v>928609</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>1935</v>
@@ -4312,13 +4300,13 @@
         <v>2044395</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4321,13 @@
         <v>483255</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>441</v>
@@ -4348,13 +4336,13 @@
         <v>470135</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>893</v>
@@ -4363,13 +4351,13 @@
         <v>953390</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4372,13 @@
         <v>259708</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H12" s="7">
         <v>205</v>
@@ -4399,13 +4387,13 @@
         <v>222068</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>450</v>
@@ -4414,13 +4402,13 @@
         <v>481777</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4423,13 @@
         <v>86273</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>95</v>
@@ -4450,13 +4438,13 @@
         <v>109741</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -4468,10 +4456,10 @@
         <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4474,13 @@
         <v>14748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -4519,10 +4507,10 @@
         <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4578,13 @@
         <v>278998</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>259</v>
@@ -4605,13 +4593,13 @@
         <v>285304</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>511</v>
@@ -4620,13 +4608,13 @@
         <v>564302</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4629,13 @@
         <v>111467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
@@ -4656,13 +4644,13 @@
         <v>114661</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>209</v>
@@ -4671,13 +4659,13 @@
         <v>226128</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4680,13 @@
         <v>62949</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4707,13 +4695,13 @@
         <v>32510</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
@@ -4722,13 +4710,13 @@
         <v>95459</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4731,13 @@
         <v>21492</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>142</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -4773,13 +4761,13 @@
         <v>43573</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>179</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4782,13 @@
         <v>4178</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4809,13 +4797,13 @@
         <v>4076</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -4824,13 +4812,13 @@
         <v>8254</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4886,13 @@
         <v>1882145</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>1742</v>
@@ -4913,13 +4901,13 @@
         <v>1867439</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>3518</v>
@@ -4928,13 +4916,13 @@
         <v>3749584</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4937,13 @@
         <v>825391</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H23" s="7">
         <v>861</v>
@@ -4964,13 +4952,13 @@
         <v>925924</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M23" s="7">
         <v>1633</v>
@@ -4979,13 +4967,13 @@
         <v>1751314</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>342</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +4988,13 @@
         <v>494520</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H24" s="7">
         <v>438</v>
@@ -5015,13 +5003,13 @@
         <v>477180</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M24" s="7">
         <v>895</v>
@@ -5030,13 +5018,13 @@
         <v>971700</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,10 +5039,10 @@
         <v>168771</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>353</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>354</v>
@@ -5069,10 +5057,10 @@
         <v>355</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M25" s="7">
         <v>359</v>
@@ -5081,10 +5069,10 @@
         <v>399300</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>359</v>
@@ -5105,10 +5093,10 @@
         <v>280</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>360</v>
+        <v>281</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>361</v>
+        <v>282</v>
       </c>
       <c r="H26" s="7">
         <v>44</v>
@@ -5117,13 +5105,13 @@
         <v>51019</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>105</v>
+        <v>360</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -5132,13 +5120,13 @@
         <v>88495</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>366</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,7 +5182,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5213,7 +5201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EECB2F7-126F-4D57-B865-D8A8AAEFE20E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3141C35-70D8-42D3-8A97-797579E85A25}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5230,7 +5218,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5337,13 +5325,13 @@
         <v>298062</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H4" s="7">
         <v>295</v>
@@ -5352,13 +5340,13 @@
         <v>327724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M4" s="7">
         <v>593</v>
@@ -5367,13 +5355,13 @@
         <v>625785</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5376,13 @@
         <v>265421</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H5" s="7">
         <v>349</v>
@@ -5403,13 +5391,13 @@
         <v>382845</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M5" s="7">
         <v>618</v>
@@ -5418,13 +5406,13 @@
         <v>648265</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5427,13 @@
         <v>142668</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H6" s="7">
         <v>170</v>
@@ -5454,13 +5442,13 @@
         <v>191279</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M6" s="7">
         <v>315</v>
@@ -5469,7 +5457,7 @@
         <v>333946</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>219</v>
+        <v>390</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>391</v>
@@ -5490,7 +5478,7 @@
         <v>43324</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>393</v>
@@ -5523,10 +5511,10 @@
         <v>398</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>399</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>400</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5529,13 @@
         <v>4873</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -5556,13 +5544,13 @@
         <v>16003</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>405</v>
+        <v>321</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -5571,13 +5559,13 @@
         <v>20876</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>405</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5633,13 @@
         <v>879948</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H10" s="7">
         <v>808</v>
@@ -5663,10 +5651,10 @@
         <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M10" s="7">
         <v>1632</v>
@@ -5675,13 +5663,13 @@
         <v>1708109</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5684,13 @@
         <v>779367</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H11" s="7">
         <v>759</v>
@@ -5711,13 +5699,13 @@
         <v>793632</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M11" s="7">
         <v>1502</v>
@@ -5726,13 +5714,13 @@
         <v>1572999</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5735,13 @@
         <v>302568</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H12" s="7">
         <v>258</v>
@@ -5762,13 +5750,13 @@
         <v>275065</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M12" s="7">
         <v>541</v>
@@ -5777,10 +5765,10 @@
         <v>577634</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>432</v>
@@ -5819,7 +5807,7 @@
         <v>437</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -5828,13 +5816,13 @@
         <v>168592</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5837,13 @@
         <v>18415</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -5864,13 +5852,13 @@
         <v>10777</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -5879,13 +5867,13 @@
         <v>29192</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +5941,13 @@
         <v>266861</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>263</v>
@@ -5968,13 +5956,13 @@
         <v>271399</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M16" s="7">
         <v>511</v>
@@ -5983,13 +5971,13 @@
         <v>538260</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +5992,13 @@
         <v>194284</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -6019,13 +6007,13 @@
         <v>182342</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M17" s="7">
         <v>357</v>
@@ -6034,13 +6022,13 @@
         <v>376626</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6043,13 @@
         <v>65109</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>130</v>
+        <v>466</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -6070,13 +6058,13 @@
         <v>63638</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="M18" s="7">
         <v>114</v>
@@ -6085,13 +6073,13 @@
         <v>128747</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,7 +6094,7 @@
         <v>16910</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>476</v>
@@ -6124,10 +6112,10 @@
         <v>478</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>53</v>
+        <v>479</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>394</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -6142,7 +6130,7 @@
         <v>481</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>482</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,7 +6145,7 @@
         <v>2857</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>483</v>
@@ -6178,7 +6166,7 @@
         <v>486</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>51</v>
+        <v>487</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -6187,13 +6175,13 @@
         <v>6587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>489</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>488</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6249,13 @@
         <v>1444870</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H22" s="7">
         <v>1366</v>
@@ -6276,13 +6264,13 @@
         <v>1427284</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>13</v>
+        <v>493</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M22" s="7">
         <v>2736</v>
@@ -6291,13 +6279,13 @@
         <v>2872154</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,13 +6300,13 @@
         <v>1239072</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>497</v>
+        <v>375</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H23" s="7">
         <v>1284</v>
@@ -6327,13 +6315,13 @@
         <v>1358819</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M23" s="7">
         <v>2477</v>
@@ -6342,13 +6330,13 @@
         <v>2597891</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,10 +6354,10 @@
         <v>129</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H24" s="7">
         <v>487</v>
@@ -6378,13 +6366,13 @@
         <v>529982</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>508</v>
+        <v>427</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M24" s="7">
         <v>970</v>
@@ -6393,13 +6381,13 @@
         <v>1040327</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,7 +6402,7 @@
         <v>151681</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>513</v>
+        <v>273</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>514</v>
@@ -6450,7 +6438,7 @@
         <v>520</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,13 +6453,13 @@
         <v>26145</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>522</v>
+        <v>446</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>52</v>
+        <v>523</v>
       </c>
       <c r="H26" s="7">
         <v>28</v>
@@ -6480,13 +6468,13 @@
         <v>30510</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M26" s="7">
         <v>51</v>
@@ -6495,13 +6483,13 @@
         <v>56656</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>527</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,7 +6545,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6576,7 +6564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F65667B-E8FB-4389-BF67-59573E5089B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B5F93D-BF3B-486D-9126-AEEBBF30CC14}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6700,13 +6688,13 @@
         <v>234319</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>529</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H4" s="7">
         <v>557</v>
@@ -6715,13 +6703,13 @@
         <v>324585</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>533</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>856</v>
@@ -6751,13 +6739,13 @@
         <v>157385</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H5" s="7">
         <v>470</v>
@@ -6766,13 +6754,13 @@
         <v>270688</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="M5" s="7">
         <v>667</v>
@@ -6781,13 +6769,13 @@
         <v>428072</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6790,13 @@
         <v>82441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H6" s="7">
         <v>212</v>
@@ -6817,13 +6805,13 @@
         <v>124083</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="M6" s="7">
         <v>317</v>
@@ -6832,13 +6820,13 @@
         <v>206525</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>552</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>553</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,13 +6841,13 @@
         <v>47479</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="H7" s="7">
         <v>137</v>
@@ -6868,13 +6856,13 @@
         <v>79153</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="M7" s="7">
         <v>201</v>
@@ -6883,13 +6871,13 @@
         <v>126631</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,13 +6892,13 @@
         <v>19157</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>562</v>
+        <v>434</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>564</v>
+        <v>515</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -6919,13 +6907,13 @@
         <v>33785</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -6934,13 +6922,13 @@
         <v>52942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>227</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,13 +6996,13 @@
         <v>1168314</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="H10" s="7">
         <v>1398</v>
@@ -7023,13 +7011,13 @@
         <v>1080165</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="M10" s="7">
         <v>2373</v>
@@ -7038,13 +7026,13 @@
         <v>2248479</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7047,13 @@
         <v>719654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>375</v>
+        <v>577</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>580</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>1077</v>
@@ -7077,25 +7065,25 @@
         <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M11" s="7">
         <v>1803</v>
       </c>
       <c r="N11" s="7">
-        <v>1474291</v>
+        <v>1474290</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7098,13 @@
         <v>160457</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>273</v>
+        <v>585</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>587</v>
+        <v>48</v>
       </c>
       <c r="H12" s="7">
         <v>240</v>
@@ -7125,13 +7113,13 @@
         <v>277267</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>588</v>
+        <v>428</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M12" s="7">
         <v>396</v>
@@ -7140,13 +7128,13 @@
         <v>437724</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,10 +7149,10 @@
         <v>92406</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>272</v>
@@ -7176,13 +7164,13 @@
         <v>105229</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>598</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>265</v>
@@ -7191,13 +7179,13 @@
         <v>197634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,13 +7200,13 @@
         <v>21032</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>598</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>602</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -7227,13 +7215,13 @@
         <v>31613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>605</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
@@ -7242,13 +7230,13 @@
         <v>52644</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>608</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,7 +7278,7 @@
         <v>4911</v>
       </c>
       <c r="N15" s="7">
-        <v>4410772</v>
+        <v>4410771</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7316,13 +7304,13 @@
         <v>395784</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="H16" s="7">
         <v>576</v>
@@ -7331,13 +7319,13 @@
         <v>429822</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="M16" s="7">
         <v>968</v>
@@ -7346,13 +7334,13 @@
         <v>825606</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7355,13 @@
         <v>192840</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>613</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H17" s="7">
         <v>294</v>
@@ -7382,13 +7370,13 @@
         <v>192114</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>617</v>
       </c>
       <c r="M17" s="7">
         <v>498</v>
@@ -7397,13 +7385,13 @@
         <v>384954</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,13 +7406,13 @@
         <v>47671</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>438</v>
+        <v>622</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H18" s="7">
         <v>63</v>
@@ -7433,13 +7421,13 @@
         <v>47758</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>628</v>
+        <v>516</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="M18" s="7">
         <v>111</v>
@@ -7448,13 +7436,13 @@
         <v>95429</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>399</v>
+        <v>627</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7469,13 +7457,13 @@
         <v>27190</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -7484,13 +7472,13 @@
         <v>35036</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>637</v>
+        <v>185</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -7499,13 +7487,13 @@
         <v>62226</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>639</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7520,13 +7508,13 @@
         <v>9554</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>443</v>
+        <v>635</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>562</v>
+        <v>636</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -7535,13 +7523,13 @@
         <v>8997</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>525</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -7550,13 +7538,13 @@
         <v>18551</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,13 +7612,13 @@
         <v>1798416</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>645</v>
+        <v>64</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="H22" s="7">
         <v>2531</v>
@@ -7639,13 +7627,13 @@
         <v>1834572</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>649</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>4197</v>
@@ -7654,13 +7642,13 @@
         <v>3632988</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,13 +7663,13 @@
         <v>1069879</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="H23" s="7">
         <v>1841</v>
@@ -7690,13 +7678,13 @@
         <v>1217438</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="M23" s="7">
         <v>2968</v>
@@ -7705,13 +7693,13 @@
         <v>2287317</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>661</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7714,13 @@
         <v>290569</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="H24" s="7">
         <v>515</v>
@@ -7741,13 +7729,13 @@
         <v>449109</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="M24" s="7">
         <v>824</v>
@@ -7756,13 +7744,13 @@
         <v>739677</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7777,13 +7765,13 @@
         <v>167074</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>663</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>669</v>
+        <v>231</v>
       </c>
       <c r="H25" s="7">
         <v>351</v>
@@ -7792,13 +7780,13 @@
         <v>219417</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>670</v>
+        <v>231</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="M25" s="7">
         <v>551</v>
@@ -7807,13 +7795,13 @@
         <v>386492</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>91</v>
+        <v>667</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7828,13 +7816,13 @@
         <v>49742</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>361</v>
+        <v>105</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>58</v>
+        <v>669</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>675</v>
+        <v>487</v>
       </c>
       <c r="H26" s="7">
         <v>107</v>
@@ -7843,13 +7831,13 @@
         <v>74395</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>403</v>
+        <v>599</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="M26" s="7">
         <v>167</v>
@@ -7858,13 +7846,13 @@
         <v>124138</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>443</v>
+        <v>673</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>674</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7920,7 +7908,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5701-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5701-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{420D6158-DBBC-42D6-911F-D474CF0D2040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7A024BD-8582-4298-836D-A52C3998D433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E7B8DCAE-004D-49F0-90AD-938143909BE7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{07306CD4-912F-480A-A8BD-517BFFB67843}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="680">
   <si>
     <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -1628,442 +1628,457 @@
     <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2023 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>2,25%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
 </sst>
 </file>
@@ -2475,7 +2490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC981639-0D2C-480E-91FC-571B4266FEAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D85A2F-FF2F-475F-AFDB-6DDC0418A022}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2881,7 +2896,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -2904,7 +2919,7 @@
         <v>799</v>
       </c>
       <c r="D10" s="7">
-        <v>826605</v>
+        <v>826606</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -3159,7 +3174,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3520,7 +3535,7 @@
         <v>1439</v>
       </c>
       <c r="D22" s="7">
-        <v>1474339</v>
+        <v>1474338</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>151</v>
@@ -3535,7 +3550,7 @@
         <v>1403</v>
       </c>
       <c r="I22" s="7">
-        <v>1410088</v>
+        <v>1410087</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>154</v>
@@ -3550,7 +3565,7 @@
         <v>2842</v>
       </c>
       <c r="N22" s="7">
-        <v>2884425</v>
+        <v>2884426</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>157</v>
@@ -3652,7 +3667,7 @@
         <v>1291</v>
       </c>
       <c r="N24" s="7">
-        <v>1315631</v>
+        <v>1315632</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>175</v>
@@ -3775,7 +3790,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3790,7 +3805,7 @@
         <v>3297</v>
       </c>
       <c r="I27" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3805,7 +3820,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3838,7 +3853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4AC37C-491B-42DC-AEC3-941F51D97A6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E4554-3E56-4E02-86BB-641C54BD8430}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4267,7 +4282,7 @@
         <v>1063</v>
       </c>
       <c r="D10" s="7">
-        <v>1115785</v>
+        <v>1115786</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>239</v>
@@ -4369,7 +4384,7 @@
         <v>245</v>
       </c>
       <c r="D12" s="7">
-        <v>259708</v>
+        <v>259709</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>257</v>
@@ -4522,7 +4537,7 @@
         <v>1852</v>
       </c>
       <c r="D15" s="7">
-        <v>1959770</v>
+        <v>1959771</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5201,7 +5216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3141C35-70D8-42D3-8A97-797579E85A25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038628AA-2E6F-4081-8800-4213235FB5BC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6564,7 +6579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B5F93D-BF3B-486D-9126-AEEBBF30CC14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1A45B4-3091-47EC-8934-78524CEC0C36}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6685,7 +6700,7 @@
         <v>299</v>
       </c>
       <c r="D4" s="7">
-        <v>234319</v>
+        <v>227891</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>529</v>
@@ -6700,7 +6715,7 @@
         <v>557</v>
       </c>
       <c r="I4" s="7">
-        <v>324585</v>
+        <v>301331</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>532</v>
@@ -6709,22 +6724,22 @@
         <v>533</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>534</v>
       </c>
       <c r="M4" s="7">
         <v>856</v>
       </c>
       <c r="N4" s="7">
-        <v>558904</v>
+        <v>529222</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,46 +6751,46 @@
         <v>197</v>
       </c>
       <c r="D5" s="7">
-        <v>157385</v>
+        <v>148732</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>538</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H5" s="7">
         <v>470</v>
       </c>
       <c r="I5" s="7">
-        <v>270688</v>
+        <v>243365</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="M5" s="7">
         <v>667</v>
       </c>
       <c r="N5" s="7">
-        <v>428072</v>
+        <v>392097</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,46 +6802,46 @@
         <v>105</v>
       </c>
       <c r="D6" s="7">
-        <v>82441</v>
+        <v>77113</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>131</v>
+        <v>547</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H6" s="7">
         <v>212</v>
       </c>
       <c r="I6" s="7">
-        <v>124083</v>
+        <v>108905</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>548</v>
+        <v>260</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M6" s="7">
         <v>317</v>
       </c>
       <c r="N6" s="7">
-        <v>206525</v>
+        <v>186019</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>551</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>218</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,46 +6853,46 @@
         <v>64</v>
       </c>
       <c r="D7" s="7">
-        <v>47479</v>
+        <v>43123</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H7" s="7">
         <v>137</v>
       </c>
       <c r="I7" s="7">
-        <v>79153</v>
+        <v>69487</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M7" s="7">
         <v>201</v>
       </c>
       <c r="N7" s="7">
-        <v>126631</v>
+        <v>112610</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,46 +6904,46 @@
         <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>19157</v>
+        <v>17281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>434</v>
+        <v>562</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>561</v>
+        <v>323</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>515</v>
+        <v>563</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
       </c>
       <c r="I8" s="7">
-        <v>33785</v>
+        <v>29216</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
       </c>
       <c r="N8" s="7">
-        <v>52942</v>
+        <v>46496</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,7 +6955,7 @@
         <v>690</v>
       </c>
       <c r="D9" s="7">
-        <v>540780</v>
+        <v>514139</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6955,7 +6970,7 @@
         <v>1422</v>
       </c>
       <c r="I9" s="7">
-        <v>832294</v>
+        <v>752304</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6970,7 +6985,7 @@
         <v>2112</v>
       </c>
       <c r="N9" s="7">
-        <v>1373074</v>
+        <v>1266443</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6993,46 +7008,46 @@
         <v>975</v>
       </c>
       <c r="D10" s="7">
-        <v>1168314</v>
+        <v>1357571</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H10" s="7">
         <v>1398</v>
       </c>
       <c r="I10" s="7">
-        <v>1080165</v>
+        <v>1079599</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M10" s="7">
         <v>2373</v>
       </c>
       <c r="N10" s="7">
-        <v>2248479</v>
+        <v>2437169</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,46 +7059,46 @@
         <v>726</v>
       </c>
       <c r="D11" s="7">
-        <v>719654</v>
+        <v>673967</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>581</v>
       </c>
       <c r="H11" s="7">
         <v>1077</v>
       </c>
       <c r="I11" s="7">
-        <v>754636</v>
+        <v>675257</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>14</v>
+        <v>582</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="M11" s="7">
         <v>1803</v>
       </c>
       <c r="N11" s="7">
-        <v>1474290</v>
+        <v>1349223</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,46 +7110,46 @@
         <v>156</v>
       </c>
       <c r="D12" s="7">
-        <v>160457</v>
+        <v>153741</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>585</v>
+        <v>312</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>48</v>
+        <v>589</v>
       </c>
       <c r="H12" s="7">
         <v>240</v>
       </c>
       <c r="I12" s="7">
-        <v>277267</v>
+        <v>358870</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>428</v>
+        <v>590</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="M12" s="7">
         <v>396</v>
       </c>
       <c r="N12" s="7">
-        <v>437724</v>
+        <v>512612</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>589</v>
+        <v>136</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,46 +7161,46 @@
         <v>108</v>
       </c>
       <c r="D13" s="7">
-        <v>92406</v>
+        <v>85551</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>597</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
       </c>
       <c r="I13" s="7">
-        <v>105229</v>
+        <v>94320</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>600</v>
       </c>
       <c r="M13" s="7">
         <v>265</v>
       </c>
       <c r="N13" s="7">
-        <v>197634</v>
+        <v>179871</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>597</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,46 +7212,46 @@
         <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>21032</v>
+        <v>19335</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>598</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>441</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
       </c>
       <c r="I14" s="7">
-        <v>31613</v>
+        <v>29212</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>604</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>601</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
       </c>
       <c r="N14" s="7">
-        <v>52644</v>
+        <v>48547</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>605</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,7 +7263,7 @@
         <v>1991</v>
       </c>
       <c r="D15" s="7">
-        <v>2161862</v>
+        <v>2290165</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7263,7 +7278,7 @@
         <v>2920</v>
       </c>
       <c r="I15" s="7">
-        <v>2248909</v>
+        <v>2237258</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7278,7 +7293,7 @@
         <v>4911</v>
       </c>
       <c r="N15" s="7">
-        <v>4410771</v>
+        <v>4527422</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7301,46 +7316,46 @@
         <v>392</v>
       </c>
       <c r="D16" s="7">
-        <v>395784</v>
+        <v>383033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="H16" s="7">
         <v>576</v>
       </c>
       <c r="I16" s="7">
-        <v>429822</v>
+        <v>399482</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="M16" s="7">
         <v>968</v>
       </c>
       <c r="N16" s="7">
-        <v>825606</v>
+        <v>782515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,46 +7367,46 @@
         <v>204</v>
       </c>
       <c r="D17" s="7">
-        <v>192840</v>
+        <v>179137</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="H17" s="7">
         <v>294</v>
       </c>
       <c r="I17" s="7">
-        <v>192114</v>
+        <v>175781</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="M17" s="7">
         <v>498</v>
       </c>
       <c r="N17" s="7">
-        <v>384954</v>
+        <v>354918</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,46 +7418,46 @@
         <v>48</v>
       </c>
       <c r="D18" s="7">
-        <v>47671</v>
+        <v>49317</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>621</v>
+        <v>186</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="H18" s="7">
         <v>63</v>
       </c>
       <c r="I18" s="7">
-        <v>47758</v>
+        <v>43939</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>624</v>
+        <v>566</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>516</v>
+        <v>270</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="M18" s="7">
         <v>111</v>
       </c>
       <c r="N18" s="7">
-        <v>95429</v>
+        <v>93256</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>626</v>
+        <v>591</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7454,46 +7469,46 @@
         <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>27190</v>
+        <v>26256</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
       </c>
       <c r="I19" s="7">
-        <v>35036</v>
+        <v>32729</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>636</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
       </c>
       <c r="N19" s="7">
-        <v>62226</v>
+        <v>58985</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>231</v>
+        <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7505,46 +7520,46 @@
         <v>9</v>
       </c>
       <c r="D20" s="7">
-        <v>9554</v>
+        <v>8880</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>635</v>
+        <v>442</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>639</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
       </c>
       <c r="I20" s="7">
-        <v>8997</v>
+        <v>8374</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>399</v>
+        <v>641</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
       </c>
       <c r="N20" s="7">
-        <v>18551</v>
+        <v>17253</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,7 +7571,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7571,7 +7586,7 @@
         <v>1003</v>
       </c>
       <c r="I21" s="7">
-        <v>713727</v>
+        <v>660304</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7586,7 +7601,7 @@
         <v>1684</v>
       </c>
       <c r="N21" s="7">
-        <v>1386766</v>
+        <v>1306927</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7609,46 +7624,46 @@
         <v>1666</v>
       </c>
       <c r="D22" s="7">
-        <v>1798416</v>
+        <v>1968494</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>640</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>64</v>
+        <v>284</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H22" s="7">
         <v>2531</v>
       </c>
       <c r="I22" s="7">
-        <v>1834572</v>
+        <v>1780412</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>648</v>
       </c>
       <c r="M22" s="7">
         <v>4197</v>
       </c>
       <c r="N22" s="7">
-        <v>3632988</v>
+        <v>3748906</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>645</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,46 +7675,46 @@
         <v>1127</v>
       </c>
       <c r="D23" s="7">
-        <v>1069879</v>
+        <v>1001836</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="H23" s="7">
         <v>1841</v>
       </c>
       <c r="I23" s="7">
-        <v>1217438</v>
+        <v>1094402</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="M23" s="7">
         <v>2968</v>
       </c>
       <c r="N23" s="7">
-        <v>2287317</v>
+        <v>2096238</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>577</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,46 +7726,46 @@
         <v>309</v>
       </c>
       <c r="D24" s="7">
-        <v>290569</v>
+        <v>280172</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="H24" s="7">
         <v>515</v>
       </c>
       <c r="I24" s="7">
-        <v>449109</v>
+        <v>511714</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>659</v>
+        <v>29</v>
       </c>
       <c r="M24" s="7">
         <v>824</v>
       </c>
       <c r="N24" s="7">
-        <v>739677</v>
+        <v>791886</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,46 +7777,46 @@
         <v>200</v>
       </c>
       <c r="D25" s="7">
-        <v>167074</v>
+        <v>154930</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>231</v>
+        <v>668</v>
       </c>
       <c r="H25" s="7">
         <v>351</v>
       </c>
       <c r="I25" s="7">
-        <v>219417</v>
+        <v>196536</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>231</v>
+        <v>521</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>665</v>
+        <v>274</v>
       </c>
       <c r="M25" s="7">
         <v>551</v>
       </c>
       <c r="N25" s="7">
-        <v>386492</v>
+        <v>351466</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>666</v>
+        <v>353</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,46 +7828,46 @@
         <v>60</v>
       </c>
       <c r="D26" s="7">
-        <v>49742</v>
+        <v>45495</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>105</v>
+        <v>643</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>487</v>
+        <v>673</v>
       </c>
       <c r="H26" s="7">
         <v>107</v>
       </c>
       <c r="I26" s="7">
-        <v>74395</v>
+        <v>66801</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="M26" s="7">
         <v>167</v>
       </c>
       <c r="N26" s="7">
-        <v>124138</v>
+        <v>112297</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,7 +7879,7 @@
         <v>3362</v>
       </c>
       <c r="D27" s="7">
-        <v>3375681</v>
+        <v>3450927</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7879,7 +7894,7 @@
         <v>5345</v>
       </c>
       <c r="I27" s="7">
-        <v>3794930</v>
+        <v>3649865</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7894,7 +7909,7 @@
         <v>8707</v>
       </c>
       <c r="N27" s="7">
-        <v>7170612</v>
+        <v>7100792</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
